--- a/untitled/book.xlsx
+++ b/untitled/book.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KycT\Desktop\Новая папка (2)\untitled\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72761607-B534-47DC-875B-AAF9C4469A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
+    <workbookView xWindow="4695" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>fname</t>
   </si>
@@ -54,12 +55,42 @@
   </si>
   <si>
     <t>KycT@mail.ru</t>
+  </si>
+  <si>
+    <t>89872850120</t>
+  </si>
+  <si>
+    <t>89854428565</t>
+  </si>
+  <si>
+    <t>Sergey</t>
+  </si>
+  <si>
+    <t>Gorbach</t>
+  </si>
+  <si>
+    <t>serg204612@mail.ru</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>Potapov</t>
+  </si>
+  <si>
+    <t>nikitosij@gmail.ru</t>
+  </si>
+  <si>
+    <t>89854866521</t>
+  </si>
+  <si>
+    <t>89213543215</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,9 +131,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -383,19 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -408,7 +440,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -422,8 +454,8 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>89654752130</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,16 +468,46 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>89872850120</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C348D4A8-E051-43C2-A14A-12C75530B1D1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{1A18AEC9-25A2-4175-8B53-BA9144F19923}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>